--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="590">
   <si>
     <t>Popular Car Model</t>
   </si>
@@ -320,7 +320,7 @@
     <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VDi</t>
   </si>
   <si>
-    <t>Rs. 4.30 Lakh</t>
+    <t>Rs. 4.26 Lakh</t>
   </si>
   <si>
     <t>81985 Kms</t>
@@ -545,6 +545,57 @@
     <t>Maruti Swift Dzire Tour 2012-2018 Maruti Swift Dzire S</t>
   </si>
   <si>
+    <t>Rs. 4.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.20 Lakh</t>
+  </si>
+  <si>
+    <t>30000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 3.20 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZXI Plus</t>
+  </si>
+  <si>
+    <t>80000 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI AT</t>
+  </si>
+  <si>
+    <t>2023 Model</t>
+  </si>
+  <si>
+    <t>Rs. 8.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire 1.2 Lxi BSIV</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXI Optional</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT VDI</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZDI Plus</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire LXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VXi AT</t>
+  </si>
+  <si>
+    <t>Rs. 4.75 Lakh</t>
+  </si>
+  <si>
+    <t>76952 Kms</t>
+  </si>
+  <si>
     <t>Maruti Swift 2004-2010 Maruti Swift 1.3 VXi</t>
   </si>
   <si>
@@ -674,7 +725,7 @@
     <t>72004 Kms</t>
   </si>
   <si>
-    <t>Rs. 4.61 Lakh</t>
+    <t>Rs. 4.51 Lakh</t>
   </si>
   <si>
     <t>92947 Kms</t>
@@ -749,15 +800,9 @@
     <t>Maruti Swift 2014-2021 Maruti Swift VVT VXI</t>
   </si>
   <si>
-    <t>Rs. 4.75 Lakh</t>
-  </si>
-  <si>
     <t>112407 Kms</t>
   </si>
   <si>
-    <t>Rs. 6.20 Lakh</t>
-  </si>
-  <si>
     <t>61500 Kms</t>
   </si>
   <si>
@@ -770,7 +815,7 @@
     <t>49063 Kms</t>
   </si>
   <si>
-    <t>Rs. 4.67 Lakh</t>
+    <t>Rs. 4.57 Lakh</t>
   </si>
   <si>
     <t>72542 Kms</t>
@@ -794,6 +839,69 @@
     <t>84856 Kms</t>
   </si>
   <si>
+    <t>Rs. 4.22 Lakh</t>
+  </si>
+  <si>
+    <t>105189 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 3.85 Lakh</t>
+  </si>
+  <si>
+    <t>94375 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 3.88 Lakh</t>
+  </si>
+  <si>
+    <t>85362 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.12 Lakh</t>
+  </si>
+  <si>
+    <t>38299 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 3.84 Lakh</t>
+  </si>
+  <si>
+    <t>89926 Kms</t>
+  </si>
+  <si>
+    <t>57561 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 6.06 Lakh</t>
+  </si>
+  <si>
+    <t>104461 Kms</t>
+  </si>
+  <si>
+    <t>59186 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 4.62 Lakh</t>
+  </si>
+  <si>
+    <t>70740 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 6.75 Lakh</t>
+  </si>
+  <si>
+    <t>44218 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.84 Lakh</t>
+  </si>
+  <si>
+    <t>105494 Kms</t>
+  </si>
+  <si>
     <t>Maruti Swift 2014-2021 Maruti Swift VXI 2018</t>
   </si>
   <si>
@@ -812,15 +920,9 @@
     <t>59237 Kms</t>
   </si>
   <si>
-    <t>30000 Kms</t>
-  </si>
-  <si>
     <t>Maruti Swift Maruti Swift VXI BSVI</t>
   </si>
   <si>
-    <t>2023 Model</t>
-  </si>
-  <si>
     <t>Maruti Swift 2014-2021 Maruti Swift LXI</t>
   </si>
   <si>
@@ -836,72 +938,9 @@
     <t>12205 Kms</t>
   </si>
   <si>
-    <t>80000 Kms</t>
-  </si>
-  <si>
     <t>Maruti Swift 2010-2014 Maruti Swift RS VXI</t>
   </si>
   <si>
-    <t>Rs. 4.22 Lakh</t>
-  </si>
-  <si>
-    <t>105189 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 3.85 Lakh</t>
-  </si>
-  <si>
-    <t>94375 Kms</t>
-  </si>
-  <si>
-    <t>85362 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 5.12 Lakh</t>
-  </si>
-  <si>
-    <t>38299 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 3.84 Lakh</t>
-  </si>
-  <si>
-    <t>89926 Kms</t>
-  </si>
-  <si>
-    <t>57561 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2018 Maruti Swift AMT ZDI</t>
-  </si>
-  <si>
-    <t>Rs. 6.06 Lakh</t>
-  </si>
-  <si>
-    <t>104461 Kms</t>
-  </si>
-  <si>
-    <t>59186 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 4.62 Lakh</t>
-  </si>
-  <si>
-    <t>70740 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 6.75 Lakh</t>
-  </si>
-  <si>
-    <t>44218 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 5.84 Lakh</t>
-  </si>
-  <si>
-    <t>105494 Kms</t>
-  </si>
-  <si>
     <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VXi BSII</t>
   </si>
   <si>
@@ -947,519 +986,510 @@
     <t>Rs. 2.75 Lakh</t>
   </si>
   <si>
+    <t>Rs. 4.65 Lakh</t>
+  </si>
+  <si>
+    <t>77971 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.25 Lakh</t>
+  </si>
+  <si>
+    <t>75836 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 6.45 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift VDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.45 Lakh</t>
+  </si>
+  <si>
+    <t>61745 Kms</t>
+  </si>
+  <si>
+    <t>22790 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI Plus</t>
+  </si>
+  <si>
+    <t>9000 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2011-2014 Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.60 Lakh</t>
+  </si>
+  <si>
+    <t>29093 Kms</t>
+  </si>
+  <si>
+    <t>52802 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2011-2014 Maruti Swift ZDi</t>
+  </si>
+  <si>
+    <t>Rs. 4.55 Lakh</t>
+  </si>
+  <si>
+    <t>95535 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VDI Optional</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 Ldi BSIII</t>
+  </si>
+  <si>
+    <t>Rs. 2.35 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VDI BSII</t>
+  </si>
+  <si>
+    <t>Rs. 2.70 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.20 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift RS VDI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift ZXI Plus</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift ZDi</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift AMT VDI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift LXI Option</t>
+  </si>
+  <si>
+    <t>Rs. 4.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.45 Lakh</t>
+  </si>
+  <si>
+    <t>64226 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift VXI BSII</t>
+  </si>
+  <si>
+    <t>Rs. 6.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift LXI BSVI</t>
+  </si>
+  <si>
+    <t>86630 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 5.40 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift VDI</t>
+  </si>
+  <si>
+    <t>107618 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna</t>
+  </si>
+  <si>
+    <t>Rs. 3.70 Lakh</t>
+  </si>
+  <si>
+    <t>93254 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz</t>
+  </si>
+  <si>
+    <t>Rs. 3.11 Lakh</t>
+  </si>
+  <si>
+    <t>98825 Kms</t>
+  </si>
+  <si>
+    <t>59051 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 3.37 Lakh</t>
+  </si>
+  <si>
+    <t>37947 Kms</t>
+  </si>
+  <si>
+    <t>88688 Kms</t>
+  </si>
+  <si>
+    <t>43000 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Asta</t>
+  </si>
+  <si>
+    <t>83820 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz 1.1L</t>
+  </si>
+  <si>
+    <t>46100 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.85 Lakh</t>
+  </si>
+  <si>
+    <t>54244 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2 AT</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.13 Lakh</t>
+  </si>
+  <si>
+    <t>124487 Kms</t>
+  </si>
+  <si>
+    <t>75117 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Asta 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.90 Lakh</t>
+  </si>
+  <si>
+    <t>34000 Kms</t>
+  </si>
+  <si>
+    <t>55000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 3.03 Lakh</t>
+  </si>
+  <si>
+    <t>37416 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2</t>
+  </si>
+  <si>
+    <t>52700 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.88 Lakh</t>
+  </si>
+  <si>
+    <t>67450 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.10 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.53 Lakh</t>
+  </si>
+  <si>
+    <t>31961 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 1.70 Lakh</t>
+  </si>
+  <si>
+    <t>95020 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz AT</t>
+  </si>
+  <si>
+    <t>54000 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna AT</t>
+  </si>
+  <si>
+    <t>Rs. 3.15 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.20 Lakh</t>
+  </si>
+  <si>
+    <t>41200 Kms</t>
+  </si>
+  <si>
+    <t>43499 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.40 Lakh</t>
+  </si>
+  <si>
+    <t>59700 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 1.65 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Era</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.1</t>
+  </si>
+  <si>
+    <t>32485 Kms</t>
+  </si>
+  <si>
+    <t>14424 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.25 Lakh</t>
+  </si>
+  <si>
+    <t>44985 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.02 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.2 iTech SE</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.1 iTech SE</t>
+  </si>
+  <si>
+    <t>Rs. 2.30 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 1.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.15 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz 1.1L LPG</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Rs. 2.43 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL Plus</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XL</t>
+  </si>
+  <si>
+    <t>Rs. 1.10 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>84169 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 1.85 Lakh</t>
+  </si>
+  <si>
+    <t>72110 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 1.20 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO</t>
+  </si>
+  <si>
+    <t>Rs. 1.30 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XG eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 60,000</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS LPG</t>
+  </si>
+  <si>
+    <t>Rs. 75,000</t>
+  </si>
+  <si>
+    <t>Rs. 50,000</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>111494 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 14.40 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.65 Lakh</t>
+  </si>
+  <si>
+    <t>82000 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 8.10 Lakh</t>
+  </si>
+  <si>
+    <t>53854 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 6.85 Lakh</t>
+  </si>
+  <si>
+    <t>76000 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX Option BL</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 7.18 Lakh</t>
+  </si>
+  <si>
+    <t>124967 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i DTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.19 Lakh</t>
+  </si>
+  <si>
+    <t>93808 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 V MT Exclusive</t>
+  </si>
+  <si>
+    <t>66485 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.55 Lakh</t>
+  </si>
+  <si>
+    <t>120233 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>32000 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City VX MT</t>
+  </si>
+  <si>
+    <t>102269 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.73 Lakh</t>
+  </si>
+  <si>
+    <t>88974 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 7.98 Lakh</t>
+  </si>
+  <si>
+    <t>78157 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 10.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.83 Lakh</t>
+  </si>
+  <si>
+    <t>87114 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.78 Lakh</t>
+  </si>
+  <si>
+    <t>109216 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.59 Lakh</t>
+  </si>
+  <si>
+    <t>97006 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>50273 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City V MT</t>
+  </si>
+  <si>
     <t>Rs. 4.73 Lakh</t>
   </si>
   <si>
-    <t>77971 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 5.25 Lakh</t>
-  </si>
-  <si>
-    <t>75836 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 6.45 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift VDI</t>
-  </si>
-  <si>
-    <t>Rs. 4.45 Lakh</t>
-  </si>
-  <si>
-    <t>61745 Kms</t>
-  </si>
-  <si>
-    <t>22790 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift ZXI Plus</t>
-  </si>
-  <si>
-    <t>9000 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2011-2014 Maruti Swift VXI</t>
-  </si>
-  <si>
-    <t>Rs. 7.60 Lakh</t>
-  </si>
-  <si>
-    <t>29093 Kms</t>
-  </si>
-  <si>
-    <t>52802 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2011-2014 Maruti Swift ZDi</t>
-  </si>
-  <si>
-    <t>Rs. 4.55 Lakh</t>
-  </si>
-  <si>
-    <t>95535 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VDI Optional</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 Ldi BSIII</t>
-  </si>
-  <si>
-    <t>Rs. 2.35 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VDI BSII</t>
-  </si>
-  <si>
-    <t>Rs. 2.70 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.20 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.50 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift RS VDI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2018 Maruti Swift ZXI Plus</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift ZDi</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift AMT VDI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift LXI Option</t>
-  </si>
-  <si>
-    <t>Rs. 4.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.45 Lakh</t>
-  </si>
-  <si>
-    <t>64226 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift VXI BSII</t>
-  </si>
-  <si>
-    <t>Rs. 6.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.00 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift LXI BSVI</t>
-  </si>
-  <si>
-    <t>86630 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift ZXI BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 5.40 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2018 Maruti Swift VDI</t>
-  </si>
-  <si>
-    <t>107618 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna</t>
-  </si>
-  <si>
-    <t>Rs. 3.70 Lakh</t>
-  </si>
-  <si>
-    <t>93254 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz</t>
-  </si>
-  <si>
-    <t>Rs. 3.11 Lakh</t>
-  </si>
-  <si>
-    <t>98825 Kms</t>
-  </si>
-  <si>
-    <t>59051 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.1L</t>
-  </si>
-  <si>
-    <t>Rs. 3.37 Lakh</t>
-  </si>
-  <si>
-    <t>37947 Kms</t>
-  </si>
-  <si>
-    <t>88688 Kms</t>
-  </si>
-  <si>
-    <t>43000 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Asta</t>
-  </si>
-  <si>
-    <t>83820 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz 1.1L</t>
-  </si>
-  <si>
-    <t>46100 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 2.85 Lakh</t>
-  </si>
-  <si>
-    <t>54244 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2 AT</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 2.60 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.13 Lakh</t>
-  </si>
-  <si>
-    <t>124487 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 3.20 Lakh</t>
-  </si>
-  <si>
-    <t>75117 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Asta 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 2.90 Lakh</t>
-  </si>
-  <si>
-    <t>34000 Kms</t>
-  </si>
-  <si>
-    <t>55000 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 3.03 Lakh</t>
-  </si>
-  <si>
-    <t>37416 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2</t>
-  </si>
-  <si>
-    <t>52700 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 2.88 Lakh</t>
-  </si>
-  <si>
-    <t>67450 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 2.10 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.53 Lakh</t>
-  </si>
-  <si>
-    <t>31961 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 1.70 Lakh</t>
-  </si>
-  <si>
-    <t>95020 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz AT</t>
-  </si>
-  <si>
-    <t>54000 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna AT</t>
-  </si>
-  <si>
-    <t>Rs. 3.15 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.45 Lakh</t>
-  </si>
-  <si>
-    <t>51900 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 2.20 Lakh</t>
-  </si>
-  <si>
-    <t>41200 Kms</t>
-  </si>
-  <si>
-    <t>43499 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 2.40 Lakh</t>
-  </si>
-  <si>
-    <t>59700 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 1.65 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Era</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.1</t>
-  </si>
-  <si>
-    <t>32485 Kms</t>
-  </si>
-  <si>
-    <t>14424 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 2.25 Lakh</t>
-  </si>
-  <si>
-    <t>44985 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 2.02 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.2 iTech SE</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.1 iTech SE</t>
-  </si>
-  <si>
-    <t>Rs. 2.30 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 1.80 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.15 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 50,000</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz 1.1L LPG</t>
-  </si>
-  <si>
-    <t>LPG</t>
-  </si>
-  <si>
-    <t>Rs. 2.43 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GL Plus</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XL</t>
-  </si>
-  <si>
-    <t>Rs. 1.10 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 1.50 Lakh</t>
-  </si>
-  <si>
-    <t>84169 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XO eRLX Euro II</t>
-  </si>
-  <si>
-    <t>Rs. 1.85 Lakh</t>
-  </si>
-  <si>
-    <t>72110 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 1.20 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XO</t>
-  </si>
-  <si>
-    <t>Rs. 1.30 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GLS</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GL</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XG eRLX Euro II</t>
-  </si>
-  <si>
-    <t>Rs. 60,000</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GLS LPG</t>
-  </si>
-  <si>
-    <t>Rs. 75,000</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC CVT SV</t>
-  </si>
-  <si>
-    <t>111494 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC CVT ZX</t>
-  </si>
-  <si>
-    <t>Rs. 14.40 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC CVT SV</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.65 Lakh</t>
-  </si>
-  <si>
-    <t>82000 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 8.10 Lakh</t>
-  </si>
-  <si>
-    <t>53854 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 6.85 Lakh</t>
-  </si>
-  <si>
-    <t>76000 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC VX Option BL</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>Rs. 7.18 Lakh</t>
-  </si>
-  <si>
-    <t>124967 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i DTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 6.19 Lakh</t>
-  </si>
-  <si>
-    <t>93808 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2008-2011 Honda City 1.5 V MT Exclusive</t>
-  </si>
-  <si>
-    <t>66485 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 5.55 Lakh</t>
-  </si>
-  <si>
-    <t>120233 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>32000 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City VX MT</t>
-  </si>
-  <si>
-    <t>102269 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 5.73 Lakh</t>
-  </si>
-  <si>
-    <t>88974 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 7.98 Lakh</t>
-  </si>
-  <si>
-    <t>78157 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 10.25 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.83 Lakh</t>
-  </si>
-  <si>
-    <t>87114 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 5.78 Lakh</t>
-  </si>
-  <si>
-    <t>109216 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 5.59 Lakh</t>
-  </si>
-  <si>
-    <t>97006 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC V</t>
-  </si>
-  <si>
-    <t>50273 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2011-2013 Honda City V MT</t>
-  </si>
-  <si>
     <t>49783 Kms</t>
   </si>
   <si>
@@ -1541,177 +1571,111 @@
     <t>83549 Kms</t>
   </si>
   <si>
-    <t>Rs. 11.92 Lakh</t>
-  </si>
-  <si>
-    <t>29716 Kms</t>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G4 Diesel 8-seater</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 V Diesel 7-seater</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 EV (Diesel) PS 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 13.50 Lakh</t>
+  </si>
+  <si>
+    <t>270003 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 11.75 Lakh</t>
+  </si>
+  <si>
+    <t>200000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 12.69 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2009-2012 Toyota Innova 2.5 VX 7 STR</t>
+  </si>
+  <si>
+    <t>Rs. 11.15 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G (Diesel) 8 Seater BS III</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 12.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 8 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 15.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 8 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 E</t>
+  </si>
+  <si>
+    <t>Rs. 6.99 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x4 MT</t>
+  </si>
+  <si>
+    <t>Rs. 15.75 Lakh</t>
+  </si>
+  <si>
+    <t>139000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner TRD 4X4 AT</t>
+  </si>
+  <si>
+    <t>Rs. 31.90 Lakh</t>
+  </si>
+  <si>
+    <t>99000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner 2.8 4WD AT</t>
+  </si>
+  <si>
+    <t>Rs. 31.00 Lakh</t>
+  </si>
+  <si>
+    <t>58000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x2 AT TRD Sportivo</t>
+  </si>
+  <si>
+    <t>Rs. 29.49 Lakh</t>
+  </si>
+  <si>
+    <t>48367 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2009-2011 Toyota Fortuner 3.0 Diesel</t>
   </si>
   <si>
     <t>Rs. 10.75 Lakh</t>
   </si>
   <si>
-    <t>60932 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC VX</t>
-  </si>
-  <si>
-    <t>86832 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2008-2011 Honda City 1.5 S MT</t>
-  </si>
-  <si>
-    <t>98672 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City SV MT</t>
-  </si>
-  <si>
-    <t>Rs. 7.72 Lakh</t>
-  </si>
-  <si>
-    <t>66828 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 5.23 Lakh</t>
-  </si>
-  <si>
-    <t>101861 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City V MT</t>
-  </si>
-  <si>
-    <t>Rs. 9.49 Lakh</t>
-  </si>
-  <si>
-    <t>5639 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 13.60 Lakh</t>
-  </si>
-  <si>
-    <t>21000 Kms</t>
-  </si>
-  <si>
-    <t>Honda City 2011-2013 Honda City V AT</t>
-  </si>
-  <si>
-    <t>71456 Kms</t>
-  </si>
-  <si>
-    <t>Rs. 7.43 Lakh</t>
-  </si>
-  <si>
-    <t>71382 Kms</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G4 Diesel 8-seater</t>
-  </si>
-  <si>
-    <t>Rs. 4.65 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 V Diesel 7-seater</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 EV (Diesel) PS 7 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 13.50 Lakh</t>
-  </si>
-  <si>
-    <t>270003 Kms</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 7 Seater</t>
-  </si>
-  <si>
-    <t>Rs. 11.75 Lakh</t>
-  </si>
-  <si>
-    <t>200000 Kms</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 12.69 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2009-2012 Toyota Innova 2.5 VX 7 STR</t>
-  </si>
-  <si>
-    <t>Rs. 11.15 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G (Diesel) 8 Seater BS III</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 12.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 8 Seater</t>
-  </si>
-  <si>
-    <t>Rs. 15.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 8 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 E</t>
-  </si>
-  <si>
-    <t>Rs. 6.99 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x4 MT</t>
-  </si>
-  <si>
-    <t>Rs. 15.75 Lakh</t>
-  </si>
-  <si>
-    <t>139000 Kms</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2016-2021 Toyota Fortuner TRD 4X4 AT</t>
-  </si>
-  <si>
-    <t>Rs. 31.90 Lakh</t>
-  </si>
-  <si>
-    <t>99000 Kms</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2016-2021 Toyota Fortuner 2.8 4WD AT</t>
-  </si>
-  <si>
-    <t>Rs. 31.00 Lakh</t>
-  </si>
-  <si>
-    <t>58000 Kms</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x2 AT TRD Sportivo</t>
-  </si>
-  <si>
-    <t>Rs. 29.49 Lakh</t>
-  </si>
-  <si>
-    <t>48367 Kms</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2009-2011 Toyota Fortuner 3.0 Diesel</t>
-  </si>
-  <si>
     <t>Toyota Fortuner Toyota Fortuner 4X4 Diesel</t>
   </si>
   <si>
@@ -1730,67 +1694,76 @@
     <t>Rs. 41.00 Lakh</t>
   </si>
   <si>
-    <t>Toyota Urban cruiser Toyota Urban cruiser Premium AT</t>
-  </si>
-  <si>
-    <t>Rs. 11.25 Lakh</t>
-  </si>
-  <si>
-    <t>27000 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai EON Hyundai EON D Lite Plus</t>
-  </si>
-  <si>
-    <t>53000 Kms</t>
-  </si>
-  <si>
-    <t>Honda Amaze 2013-2016 Honda Amaze S i-Vtech</t>
-  </si>
-  <si>
-    <t>32142 Kms</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10 Nios 2019-2023 Hyundai Grand i10 Nios AMT Sportz</t>
-  </si>
-  <si>
-    <t>32545 Kms</t>
-  </si>
-  <si>
-    <t>BMW 3 Series 2019-2022 BMW 3 Series 320d Luxury Line</t>
-  </si>
-  <si>
-    <t>Rs. 55.00 Lakh</t>
-  </si>
-  <si>
-    <t>Tata Nexon 2020-2023 Tata Nexon XMA AMT S BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 9.06 Lakh</t>
-  </si>
-  <si>
-    <t>31015 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Alto 800 2012-2016 Maruti Alto 800 LXI</t>
-  </si>
-  <si>
-    <t>21087 Kms</t>
-  </si>
-  <si>
-    <t>Maruti Alto K10 2014-2020 Maruti Alto K10 VXI AMT</t>
-  </si>
-  <si>
-    <t>Maruti Wagon R 2013-2022 Maruti Wagon R AMT VXI</t>
+    <t>Mahindra XUV500 Mahindra XUV500 AT W6 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 14.00 Lakh</t>
   </si>
   <si>
     <t>22000 Kms</t>
   </si>
   <si>
-    <t>Audi Q7 Audi Q7 Technology</t>
-  </si>
-  <si>
-    <t>Rs. 81.50 Lakh</t>
+    <t>Mahindra XUV500 Mahindra XUV500 AT W9 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 13.85 Lakh</t>
+  </si>
+  <si>
+    <t>65000 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W9 1.99</t>
+  </si>
+  <si>
+    <t>Rs. 17.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W7</t>
+  </si>
+  <si>
+    <t>Rs. 12.29 Lakh</t>
+  </si>
+  <si>
+    <t>108878 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W6 2WD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W9</t>
+  </si>
+  <si>
+    <t>Rs. 16.64 Lakh</t>
+  </si>
+  <si>
+    <t>28692 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W11 Option AT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 15.45 Lakh</t>
+  </si>
+  <si>
+    <t>81392 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W4</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W4</t>
+  </si>
+  <si>
+    <t>Rs. 6.30 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.95 Lakh</t>
+  </si>
+  <si>
+    <t>105402 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 2WD</t>
   </si>
   <si>
     <t>Mahindra XUV500 Mahindra XUV500 W4 1.99 mHawk</t>
@@ -1802,9 +1775,6 @@
     <t>Rs. 14.50 Lakh</t>
   </si>
   <si>
-    <t>Mahindra XUV500 Mahindra XUV500 AT W6 2WD</t>
-  </si>
-  <si>
     <t>23000 Kms</t>
   </si>
   <si>
@@ -1818,9 +1788,6 @@
   </si>
   <si>
     <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 FWD</t>
-  </si>
-  <si>
-    <t>Rs. 8.00 Lakh</t>
   </si>
   <si>
     <t>Mahindra XUV500 Mahindra XUV500 W5 BSIV</t>
@@ -2171,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2203,16 +2170,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>63</v>
@@ -2220,16 +2187,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>87</v>
@@ -2237,16 +2204,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>63</v>
@@ -2254,16 +2221,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>63</v>
@@ -2271,16 +2238,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>54</v>
@@ -2288,16 +2255,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>37</v>
@@ -2305,7 +2272,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>150</v>
@@ -2314,7 +2281,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>37</v>
@@ -2322,16 +2289,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>37</v>
@@ -2339,16 +2306,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>63</v>
@@ -2356,7 +2323,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>166</v>
@@ -2365,7 +2332,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>37</v>
@@ -2373,16 +2340,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>37</v>
@@ -2390,7 +2357,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>82</v>
@@ -2399,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>63</v>
@@ -2407,7 +2374,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>166</v>
@@ -2416,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>73</v>
@@ -2424,16 +2391,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>63</v>
@@ -2441,16 +2408,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>54</v>
@@ -2458,16 +2425,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>41</v>
@@ -2475,16 +2442,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>73</v>
@@ -2492,16 +2459,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>37</v>
@@ -2509,16 +2476,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>37</v>
@@ -2526,7 +2493,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>109</v>
@@ -2535,7 +2502,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>37</v>
@@ -2543,16 +2510,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>307</v>
+        <v>487</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>154</v>
@@ -2560,16 +2527,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E23" t="s" s="0">
         <v>54</v>
@@ -2577,16 +2544,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>116</v>
@@ -2594,7 +2561,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>142</v>
@@ -2603,7 +2570,7 @@
         <v>17</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>37</v>
@@ -2611,16 +2578,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>54</v>
@@ -2628,16 +2595,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E27" t="s" s="0">
         <v>63</v>
@@ -2645,16 +2612,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>48</v>
@@ -2662,16 +2629,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E29" t="s" s="0">
         <v>63</v>
@@ -2679,16 +2646,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E30" t="s" s="0">
         <v>63</v>
@@ -2696,16 +2663,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E31" t="s" s="0">
         <v>51</v>
@@ -2713,16 +2680,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="E32" t="s" s="0">
         <v>37</v>
@@ -2730,16 +2697,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>54</v>
@@ -2747,7 +2714,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>145</v>
@@ -2756,7 +2723,7 @@
         <v>17</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E34" t="s" s="0">
         <v>37</v>
@@ -2764,16 +2731,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E35" t="s" s="0">
         <v>48</v>
@@ -2781,16 +2748,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E36" t="s" s="0">
         <v>54</v>
@@ -2798,222 +2765,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>481</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>505</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>506</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>436</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>507</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>508</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>509</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>510</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>511</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>512</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>513</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>514</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>515</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>439</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>516</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D43" t="s" s="0">
-        <v>517</v>
-      </c>
-      <c r="E43" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>449</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>455</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>341</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s" s="0">
-        <v>496</v>
-      </c>
-      <c r="E45" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>518</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>519</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>520</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>436</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>521</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s" s="0">
-        <v>522</v>
-      </c>
-      <c r="E47" t="s" s="0">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>523</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>241</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>524</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>442</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>525</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s" s="0">
-        <v>526</v>
-      </c>
-      <c r="E49" t="s" s="0">
         <v>54</v>
       </c>
     </row>
@@ -3056,10 +2819,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>528</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>61</v>
@@ -3068,15 +2831,15 @@
         <v>81</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>61</v>
@@ -3090,16 +2853,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>37</v>
@@ -3107,16 +2870,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>63</v>
@@ -3124,10 +2887,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>61</v>
@@ -3141,10 +2904,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>61</v>
@@ -3158,10 +2921,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>61</v>
@@ -3175,10 +2938,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>61</v>
@@ -3192,10 +2955,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>61</v>
@@ -3209,7 +2972,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>145</v>
@@ -3226,10 +2989,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>61</v>
@@ -3243,7 +3006,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>82</v>
@@ -3260,10 +3023,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>61</v>
@@ -3277,10 +3040,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>61</v>
@@ -3294,7 +3057,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>163</v>
@@ -3303,10 +3066,10 @@
         <v>61</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3111,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>73</v>
@@ -3365,16 +3128,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>41</v>
@@ -3382,16 +3145,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>54</v>
@@ -3399,16 +3162,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>54</v>
@@ -3416,16 +3179,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>135</v>
@@ -3433,10 +3196,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>61</v>
@@ -3450,10 +3213,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>61</v>
@@ -3462,15 +3225,15 @@
         <v>110</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>264</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>61</v>
@@ -3479,7 +3242,7 @@
         <v>22</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>264</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.04296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
@@ -3521,211 +3284,211 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>365</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>173</v>
+        <v>562</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>174</v>
+        <v>563</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>176</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>201</v>
+        <v>496</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>576</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>116</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>115</v>
+        <v>570</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>434</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>309</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>435</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>583</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>106</v>
+        <v>576</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>588</v>
+        <v>504</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>264</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>35</v>
@@ -3742,16 +3505,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>41</v>
@@ -3759,16 +3522,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>51</v>
@@ -3776,10 +3539,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>61</v>
@@ -3793,10 +3556,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>61</v>
@@ -3810,16 +3573,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>598</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>154</v>
@@ -3827,16 +3590,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>63</v>
@@ -3844,16 +3607,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>41</v>
@@ -4116,13 +3879,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.9140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
@@ -5164,6 +4927,380 @@
       </c>
       <c r="E61" t="s" s="0">
         <v>63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5205,24 +5342,24 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>160</v>
@@ -5231,7 +5368,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>54</v>
@@ -5239,7 +5376,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>160</v>
@@ -5248,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>54</v>
@@ -5256,16 +5393,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>41</v>
@@ -5273,16 +5410,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>116</v>
@@ -5290,16 +5427,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>54</v>
@@ -5307,7 +5444,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>39</v>
@@ -5316,7 +5453,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>54</v>
@@ -5324,7 +5461,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>163</v>
@@ -5333,7 +5470,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>51</v>
@@ -5341,7 +5478,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>150</v>
@@ -5350,7 +5487,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>48</v>
@@ -5358,16 +5495,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>141</v>
@@ -5375,10 +5512,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>61</v>
@@ -5392,16 +5529,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>48</v>
@@ -5409,7 +5546,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>163</v>
@@ -5418,7 +5555,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>41</v>
@@ -5426,16 +5563,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>54</v>
@@ -5443,16 +5580,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>33</v>
@@ -5460,16 +5597,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>154</v>
@@ -5477,16 +5614,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>63</v>
@@ -5494,16 +5631,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>116</v>
@@ -5511,16 +5648,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>73</v>
@@ -5528,7 +5665,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>163</v>
@@ -5537,7 +5674,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>51</v>
@@ -5545,7 +5682,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>80</v>
@@ -5554,7 +5691,7 @@
         <v>17</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>154</v>
@@ -5562,16 +5699,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s" s="0">
         <v>63</v>
@@ -5579,16 +5716,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>154</v>
@@ -5596,7 +5733,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>101</v>
@@ -5613,16 +5750,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>37</v>
@@ -5630,16 +5767,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s" s="0">
         <v>41</v>
@@ -5647,16 +5784,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>41</v>
@@ -5664,16 +5801,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E29" t="s" s="0">
         <v>154</v>
@@ -5681,16 +5818,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E30" t="s" s="0">
         <v>41</v>
@@ -5698,16 +5835,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E31" t="s" s="0">
         <v>37</v>
@@ -5715,16 +5852,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s" s="0">
         <v>51</v>
@@ -5732,16 +5869,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>63</v>
@@ -5749,16 +5886,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E34" t="s" s="0">
         <v>63</v>
@@ -5766,16 +5903,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E35" t="s" s="0">
         <v>37</v>
@@ -5783,16 +5920,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E36" t="s" s="0">
         <v>154</v>
@@ -5800,16 +5937,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>73</v>
@@ -5817,172 +5954,172 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>51</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>51</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>264</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>264</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -5990,245 +6127,245 @@
         <v>200</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>154</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>154</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>154</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>51</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>37</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>17</v>
@@ -6242,33 +6379,33 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="E64" t="s" s="0">
         <v>116</v>
@@ -6276,16 +6413,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="E65" t="s" s="0">
         <v>116</v>
@@ -6293,7 +6430,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>171</v>
@@ -6310,16 +6447,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E67" t="s" s="0">
         <v>54</v>
@@ -6327,7 +6464,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>128</v>
@@ -6336,7 +6473,7 @@
         <v>17</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="E68" t="s" s="0">
         <v>63</v>
@@ -6344,16 +6481,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="E69" t="s" s="0">
         <v>48</v>
@@ -6361,7 +6498,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>171</v>
@@ -6378,10 +6515,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>17</v>
@@ -6395,16 +6532,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E72" t="s" s="0">
         <v>63</v>
@@ -6412,16 +6549,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="E73" t="s" s="0">
         <v>63</v>
@@ -6429,10 +6566,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>17</v>
@@ -6446,16 +6583,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="E75" t="s" s="0">
         <v>33</v>
@@ -6463,7 +6600,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>147</v>
@@ -6472,7 +6609,7 @@
         <v>17</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="E76" t="s" s="0">
         <v>154</v>
@@ -6480,16 +6617,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E77" t="s" s="0">
         <v>73</v>
@@ -6497,7 +6634,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>114</v>
@@ -6506,7 +6643,7 @@
         <v>17</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E78" t="s" s="0">
         <v>87</v>
@@ -6514,16 +6651,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E79" t="s" s="0">
         <v>116</v>
@@ -6531,16 +6668,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E80" t="s" s="0">
         <v>63</v>
@@ -6548,16 +6685,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E81" t="s" s="0">
         <v>154</v>
@@ -6565,7 +6702,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>166</v>
@@ -6582,10 +6719,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>61</v>
@@ -6594,12 +6731,12 @@
         <v>62</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>288</v>
@@ -6616,7 +6753,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>145</v>
@@ -6633,24 +6770,24 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>164</v>
@@ -6667,7 +6804,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>101</v>
@@ -6684,10 +6821,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>61</v>
@@ -6701,10 +6838,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>17</v>
@@ -6718,7 +6855,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>49</v>
@@ -6735,7 +6872,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>82</v>
@@ -6747,15 +6884,15 @@
         <v>22</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>264</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>61</v>
@@ -6769,10 +6906,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>17</v>
@@ -6786,7 +6923,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B95" t="s" s="0">
         <v>163</v>
@@ -6803,7 +6940,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>71</v>
@@ -6820,7 +6957,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>166</v>
@@ -6837,7 +6974,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>142</v>
@@ -6854,10 +6991,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>17</v>
@@ -6871,16 +7008,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E100" t="s" s="0">
         <v>54</v>
@@ -6888,7 +7025,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>170</v>
@@ -6897,7 +7034,7 @@
         <v>17</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E101" t="s" s="0">
         <v>102</v>
@@ -6905,7 +7042,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>160</v>
@@ -6922,7 +7059,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>80</v>
@@ -6939,10 +7076,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>17</v>
@@ -6956,10 +7093,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>61</v>
@@ -6973,7 +7110,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>166</v>
@@ -6990,10 +7127,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>61</v>
@@ -7007,7 +7144,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>71</v>
@@ -7016,7 +7153,7 @@
         <v>17</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="E108" t="s" s="0">
         <v>116</v>
@@ -7024,16 +7161,16 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E109" t="s" s="0">
         <v>154</v>
@@ -7041,7 +7178,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>170</v>
@@ -7058,10 +7195,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>17</v>
@@ -7070,21 +7207,21 @@
         <v>167</v>
       </c>
       <c r="E111" t="s" s="0">
-        <v>264</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E112" t="s" s="0">
         <v>154</v>
@@ -7097,7 +7234,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7129,16 +7266,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>37</v>
@@ -7146,16 +7283,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>33</v>
@@ -7163,7 +7300,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>171</v>
@@ -7172,7 +7309,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>102</v>
@@ -7180,16 +7317,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>73</v>
@@ -7197,16 +7334,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>141</v>
@@ -7214,7 +7351,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>103</v>
@@ -7223,7 +7360,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>154</v>
@@ -7231,16 +7368,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>141</v>
@@ -7248,7 +7385,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>130</v>
@@ -7257,7 +7394,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>154</v>
@@ -7265,16 +7402,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>141</v>
@@ -7282,10 +7419,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>17</v>
@@ -7294,21 +7431,21 @@
         <v>31</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>102</v>
@@ -7316,16 +7453,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>63</v>
@@ -7333,16 +7470,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>372</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>33</v>
@@ -7350,16 +7487,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>374</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>375</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>362</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>141</v>
@@ -7367,7 +7504,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>130</v>
@@ -7376,7 +7513,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>33</v>
@@ -7384,16 +7521,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>102</v>
@@ -7401,16 +7538,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>141</v>
@@ -7418,16 +7555,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>73</v>
@@ -7435,10 +7572,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>17</v>
@@ -7452,16 +7589,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>141</v>
@@ -7469,16 +7606,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>102</v>
@@ -7486,10 +7623,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>17</v>
@@ -7503,16 +7640,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>154</v>
@@ -7520,24 +7657,24 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>130</v>
@@ -7546,7 +7683,7 @@
         <v>17</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>141</v>
@@ -7554,16 +7691,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E27" t="s" s="0">
         <v>102</v>
@@ -7571,101 +7708,101 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>394</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>174</v>
+        <v>404</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>395</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>167</v>
+        <v>405</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>102</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>176</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>102</v>
@@ -7673,152 +7810,152 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>369</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>174</v>
+        <v>409</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>102</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>398</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>270</v>
+        <v>412</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>176</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>406</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>407</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="E42" t="s" s="0">
         <v>102</v>
@@ -7826,16 +7963,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s" s="0">
         <v>102</v>
@@ -7843,16 +7980,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>384</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s" s="0">
         <v>102</v>
@@ -7860,152 +7997,152 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>171</v>
+        <v>354</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>73</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>164</v>
+        <v>395</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>270</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>171</v>
+        <v>419</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s" s="0">
         <v>135</v>
@@ -8013,10 +8150,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>17</v>
@@ -8030,27 +8167,27 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>411</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>17</v>
@@ -8059,29 +8196,29 @@
         <v>25</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>170</v>
@@ -8090,7 +8227,7 @@
         <v>17</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s" s="0">
         <v>141</v>
@@ -8098,24 +8235,24 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>170</v>
+        <v>354</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>342</v>
@@ -8124,103 +8261,103 @@
         <v>17</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>141</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>160</v>
+        <v>421</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>412</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>102</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>295</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>375</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>170</v>
+        <v>407</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>17</v>
@@ -8229,55 +8366,55 @@
         <v>31</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>17</v>
+        <v>423</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>31</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>171</v>
+        <v>407</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>415</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s" s="0">
         <v>31</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s" s="0">
         <v>141</v>
@@ -8285,53 +8422,36 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>141</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>402</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>342</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D72" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="E72" t="s" s="0">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8373,7 +8493,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>171</v>
@@ -8390,10 +8510,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>17</v>
@@ -8407,33 +8527,33 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>28</v>
@@ -8441,10 +8561,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>17</v>
@@ -8453,21 +8573,21 @@
         <v>62</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>28</v>
@@ -8475,10 +8595,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>17</v>
@@ -8492,7 +8612,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>170</v>
@@ -8509,10 +8629,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>17</v>
@@ -8526,7 +8646,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>16</v>
@@ -8538,21 +8658,21 @@
         <v>62</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>19</v>
@@ -8560,13 +8680,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>62</v>
@@ -8577,16 +8697,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>19</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -7,15 +7,93 @@
   </bookViews>
   <sheets>
     <sheet name="BikeDetails" r:id="rId3" sheetId="1"/>
-    <sheet name="PopularCarModels" r:id="rId4" sheetId="2"/>
-    <sheet name="CarDetails" r:id="rId5" sheetId="3"/>
-    <sheet name="HealthInsurance" r:id="rId6" sheetId="4"/>
+    <sheet name="CarDetails" r:id="rId4" sheetId="2"/>
+    <sheet name="HealthInsurance" r:id="rId5" sheetId="3"/>
+    <sheet name="PopularCarModels" r:id="rId6" sheetId="4"/>
+    <sheet name="Maruti 800" r:id="rId7" sheetId="5"/>
+    <sheet name="Maruti Swift Dzire" r:id="rId8" sheetId="6"/>
+    <sheet name="Maruti Swift" r:id="rId9" sheetId="7"/>
+    <sheet name="Hyundai I10" r:id="rId10" sheetId="8"/>
+    <sheet name="Hyundai Santro Xing" r:id="rId11" sheetId="9"/>
+    <sheet name="Honda City" r:id="rId12" sheetId="10"/>
+    <sheet name="Toyota Innova" r:id="rId13" sheetId="11"/>
+    <sheet name="Toyota Fortuner" r:id="rId14" sheetId="12"/>
+    <sheet name="Mahindra XUV500" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="330">
+  <si>
+    <t>Bike Name</t>
+  </si>
+  <si>
+    <t>Bike Price</t>
+  </si>
+  <si>
+    <t>Launch Date</t>
+  </si>
+  <si>
+    <t>Honda CRF300L</t>
+  </si>
+  <si>
+    <t>Rs. 3.30 Lakh</t>
+  </si>
+  <si>
+    <t>30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda Activa Electric</t>
+  </si>
+  <si>
+    <t>Rs. 1.10 Lakh</t>
+  </si>
+  <si>
+    <t>Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda Forza 350</t>
+  </si>
+  <si>
+    <t>Rs. 3.70 Lakh</t>
+  </si>
+  <si>
+    <t>Honda CB350 Cruiser</t>
+  </si>
+  <si>
+    <t>Rs. 2.30 Lakh</t>
+  </si>
+  <si>
+    <t>Honda Activa 7G</t>
+  </si>
+  <si>
+    <t>Rs. 79,000</t>
+  </si>
+  <si>
+    <t>Apr 2024</t>
+  </si>
+  <si>
+    <t>Honda PCX160</t>
+  </si>
+  <si>
+    <t>Rs. 1.20 Lakh</t>
+  </si>
+  <si>
+    <t>Jun 2024</t>
+  </si>
+  <si>
+    <t>Honda CBR150R</t>
+  </si>
+  <si>
+    <t>Rs. 1.70 Lakh</t>
+  </si>
+  <si>
+    <t>Unrevealed</t>
+  </si>
+  <si>
+    <t>Honda Rebel 300</t>
+  </si>
   <si>
     <t>Car Name</t>
   </si>
@@ -23,9 +101,6 @@
     <t>Car Price</t>
   </si>
   <si>
-    <t>Launch Date</t>
-  </si>
-  <si>
     <t>Tata Altroz Racer</t>
   </si>
   <si>
@@ -92,9 +167,6 @@
     <t>Rs. 4.50 Lakh</t>
   </si>
   <si>
-    <t>Unrevealed</t>
-  </si>
-  <si>
     <t>Tata Atmos</t>
   </si>
   <si>
@@ -117,6 +189,831 @@
   </si>
   <si>
     <t>Tata EVision Electric</t>
+  </si>
+  <si>
+    <t>Popular Car Model</t>
+  </si>
+  <si>
+    <t>Maruti 800</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Hyundai I10</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
+    <t>Toyota Innova</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Kilometers</t>
+  </si>
+  <si>
+    <t>Model Year</t>
+  </si>
+  <si>
+    <t>Maruti 800 Maruti 800 AC</t>
+  </si>
+  <si>
+    <t>Rs. 1.00 Lakh</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>70000 Kms</t>
+  </si>
+  <si>
+    <t>2005 Model</t>
+  </si>
+  <si>
+    <t>Maruti 800 Maruti 800 Std</t>
+  </si>
+  <si>
+    <t>Rs. 70,000</t>
+  </si>
+  <si>
+    <t>10000 Kms</t>
+  </si>
+  <si>
+    <t>1999 Model</t>
+  </si>
+  <si>
+    <t>Rs. 30,000</t>
+  </si>
+  <si>
+    <t>60000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 55,000</t>
+  </si>
+  <si>
+    <t>90000 Kms</t>
+  </si>
+  <si>
+    <t>2006 Model</t>
+  </si>
+  <si>
+    <t>Rs. 80,000</t>
+  </si>
+  <si>
+    <t>50000 Kms</t>
+  </si>
+  <si>
+    <t>40000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 1.40 Lakh</t>
+  </si>
+  <si>
+    <t>2012 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.75 Lakh</t>
+  </si>
+  <si>
+    <t>67100 Kms</t>
+  </si>
+  <si>
+    <t>2016 Model</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VXI 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 6.10 Lakh</t>
+  </si>
+  <si>
+    <t>43273 Kms</t>
+  </si>
+  <si>
+    <t>2019 Model</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZXI 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 6.83 Lakh</t>
+  </si>
+  <si>
+    <t>34572 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 7.62 Lakh</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>48633 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.70 Lakh</t>
+  </si>
+  <si>
+    <t>91800 Kms</t>
+  </si>
+  <si>
+    <t>2018 Model</t>
+  </si>
+  <si>
+    <t>Rs. 6.49 Lakh</t>
+  </si>
+  <si>
+    <t>54632 Kms</t>
+  </si>
+  <si>
+    <t>2017 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.60 Lakh</t>
+  </si>
+  <si>
+    <t>40721 Kms</t>
+  </si>
+  <si>
+    <t>67188 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire LDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.20 Lakh</t>
+  </si>
+  <si>
+    <t>150000 Kms</t>
+  </si>
+  <si>
+    <t>2015 Model</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.66 Lakh</t>
+  </si>
+  <si>
+    <t>42759 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZXI Plus</t>
+  </si>
+  <si>
+    <t>Rs. 6.41 Lakh</t>
+  </si>
+  <si>
+    <t>76323 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VDI</t>
+  </si>
+  <si>
+    <t>Rs. 5.50 Lakh</t>
+  </si>
+  <si>
+    <t>120000 Kms</t>
+  </si>
+  <si>
+    <t>2014 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.3 VXi</t>
+  </si>
+  <si>
+    <t>Rs. 2.80 Lakh</t>
+  </si>
+  <si>
+    <t>36000 Kms</t>
+  </si>
+  <si>
+    <t>2008 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 5.00 Lakh</t>
+  </si>
+  <si>
+    <t>107556 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 6.05 Lakh</t>
+  </si>
+  <si>
+    <t>75000 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.07 Lakh</t>
+  </si>
+  <si>
+    <t>48183 Kms</t>
+  </si>
+  <si>
+    <t>2021 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift DDiS VDI</t>
+  </si>
+  <si>
+    <t>Rs. 5.95 Lakh</t>
+  </si>
+  <si>
+    <t>87658 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VVT ZXI</t>
+  </si>
+  <si>
+    <t>81400 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift AMT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.50 Lakh</t>
+  </si>
+  <si>
+    <t>62599 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.95 Lakh</t>
+  </si>
+  <si>
+    <t>37000 Kms</t>
+  </si>
+  <si>
+    <t>2020 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift LDI</t>
+  </si>
+  <si>
+    <t>Rs. 3.40 Lakh</t>
+  </si>
+  <si>
+    <t>64300 Kms</t>
+  </si>
+  <si>
+    <t>2011 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VDI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 4.99 Lakh</t>
+  </si>
+  <si>
+    <t>110000 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.25 Lakh</t>
+  </si>
+  <si>
+    <t>26623 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna</t>
+  </si>
+  <si>
+    <t>93254 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz</t>
+  </si>
+  <si>
+    <t>Rs. 3.11 Lakh</t>
+  </si>
+  <si>
+    <t>98825 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.50 Lakh</t>
+  </si>
+  <si>
+    <t>59051 Kms</t>
+  </si>
+  <si>
+    <t>2010 Model</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 3.37 Lakh</t>
+  </si>
+  <si>
+    <t>37947 Kms</t>
+  </si>
+  <si>
+    <t>88688 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 3.65 Lakh</t>
+  </si>
+  <si>
+    <t>43000 Kms</t>
+  </si>
+  <si>
+    <t>2013 Model</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Asta</t>
+  </si>
+  <si>
+    <t>Rs. 2.70 Lakh</t>
+  </si>
+  <si>
+    <t>83820 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 3.10 Lakh</t>
+  </si>
+  <si>
+    <t>46100 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.77 Lakh</t>
+  </si>
+  <si>
+    <t>54244 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2 AT</t>
+  </si>
+  <si>
+    <t>Rs. 2.75 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.13 Lakh</t>
+  </si>
+  <si>
+    <t>124487 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL Plus</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XL</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>84169 Kms</t>
+  </si>
+  <si>
+    <t>2007 Model</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 1.85 Lakh</t>
+  </si>
+  <si>
+    <t>72110 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO</t>
+  </si>
+  <si>
+    <t>Rs. 1.30 Lakh</t>
+  </si>
+  <si>
+    <t>80000 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS</t>
+  </si>
+  <si>
+    <t>Rs. 2.00 Lakh</t>
+  </si>
+  <si>
+    <t>2009 Model</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL</t>
+  </si>
+  <si>
+    <t>Rs. 3.00 Lakh</t>
+  </si>
+  <si>
+    <t>100000 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XG eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 60,000</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS LPG</t>
+  </si>
+  <si>
+    <t>Rs. 75,000</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Rs. 50,000</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.25 Lakh</t>
+  </si>
+  <si>
+    <t>111494 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 14.40 Lakh</t>
+  </si>
+  <si>
+    <t>30000 Kms</t>
+  </si>
+  <si>
+    <t>2022 Model</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.65 Lakh</t>
+  </si>
+  <si>
+    <t>82000 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 8.10 Lakh</t>
+  </si>
+  <si>
+    <t>53854 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 6.85 Lakh</t>
+  </si>
+  <si>
+    <t>76000 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX Option BL</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 7.18 Lakh</t>
+  </si>
+  <si>
+    <t>124967 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i DTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.19 Lakh</t>
+  </si>
+  <si>
+    <t>93808 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 V MT Exclusive</t>
+  </si>
+  <si>
+    <t>66485 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.55 Lakh</t>
+  </si>
+  <si>
+    <t>120233 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 7.50 Lakh</t>
+  </si>
+  <si>
+    <t>32000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G4 Diesel 8-seater</t>
+  </si>
+  <si>
+    <t>Rs. 4.65 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 V Diesel 7-seater</t>
+  </si>
+  <si>
+    <t>Rs. 5.40 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 8.25 Lakh</t>
+  </si>
+  <si>
+    <t>131000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 11.75 Lakh</t>
+  </si>
+  <si>
+    <t>200000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 12.69 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2009-2012 Toyota Innova 2.5 VX 7 STR</t>
+  </si>
+  <si>
+    <t>Rs. 11.15 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G (Diesel) 8 Seater BS III</t>
+  </si>
+  <si>
+    <t>Rs. 8.50 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 7.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 8 Seater</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x4 MT</t>
+  </si>
+  <si>
+    <t>Rs. 15.75 Lakh</t>
+  </si>
+  <si>
+    <t>139000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner TRD 4X4 AT</t>
+  </si>
+  <si>
+    <t>Rs. 31.90 Lakh</t>
+  </si>
+  <si>
+    <t>99000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner 2.8 4WD AT</t>
+  </si>
+  <si>
+    <t>Rs. 31.00 Lakh</t>
+  </si>
+  <si>
+    <t>58000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x2 AT TRD Sportivo</t>
+  </si>
+  <si>
+    <t>Rs. 29.49 Lakh</t>
+  </si>
+  <si>
+    <t>48367 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2009-2011 Toyota Fortuner 3.0 Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 10.75 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X4 Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 38.00 Lakh</t>
+  </si>
+  <si>
+    <t>25000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X2 Diesel BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 37.00 Lakh</t>
+  </si>
+  <si>
+    <t>20000 Kms</t>
+  </si>
+  <si>
+    <t>2023 Model</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X2 Diesel AT</t>
+  </si>
+  <si>
+    <t>Rs. 41.00 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 AT W6 2WD</t>
+  </si>
+  <si>
+    <t>22000 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 AT W9 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 13.85 Lakh</t>
+  </si>
+  <si>
+    <t>65000 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W9 1.99</t>
+  </si>
+  <si>
+    <t>Rs. 17.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W7</t>
+  </si>
+  <si>
+    <t>Rs. 12.29 Lakh</t>
+  </si>
+  <si>
+    <t>108878 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W6 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 6.80 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W11 Option AT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 15.45 Lakh</t>
+  </si>
+  <si>
+    <t>81392 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W4</t>
+  </si>
+  <si>
+    <t>Rs. 8.75 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W4</t>
+  </si>
+  <si>
+    <t>Rs. 6.30 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.95 Lakh</t>
+  </si>
+  <si>
+    <t>105402 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 2WD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W9</t>
+  </si>
+  <si>
+    <t>Rs. 16.35 Lakh</t>
+  </si>
+  <si>
+    <t>45912 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W4 1.99 mHawk</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W7 AT</t>
+  </si>
+  <si>
+    <t>Rs. 14.50 Lakh</t>
+  </si>
+  <si>
+    <t>34000 Kms</t>
+  </si>
+  <si>
+    <t>23000 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W6 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 9.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W11 Option BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 18.00 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W10 AWD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 FWD</t>
+  </si>
+  <si>
+    <t>Rs. 8.00 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W5 BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 11.00 Lakh</t>
+  </si>
+  <si>
+    <t>Health Insurance Brand Name</t>
+  </si>
+  <si>
+    <t>Health Insurance Plan</t>
   </si>
 </sst>
 </file>
@@ -124,13 +1021,268 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="55">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -178,44 +1330,1233 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.140625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="44.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="33">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="34">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="35">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="36">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="37">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="55.97265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="38">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="40">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="41">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="53.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="43">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="44">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="45">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="46">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="47">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="47.515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="48">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="49">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="50">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="51">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="52">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1"/>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -229,157 +2570,182 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="A1" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>25</v>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="24.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.41015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="53">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s" s="54">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -389,13 +2755,1202 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.171875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="22.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="45.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="15">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="37.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="18">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="19">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="21">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="40.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="25">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="46.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="28">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="29">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="30">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="31">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="32">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -10,12 +10,21 @@
     <sheet name="CarDetails" r:id="rId4" sheetId="2"/>
     <sheet name="HealthInsurance" r:id="rId5" sheetId="3"/>
     <sheet name="PopularCarModels" r:id="rId6" sheetId="4"/>
+    <sheet name="Maruti 800" r:id="rId7" sheetId="5"/>
+    <sheet name="Maruti Swift Dzire" r:id="rId8" sheetId="6"/>
+    <sheet name="Maruti Swift" r:id="rId9" sheetId="7"/>
+    <sheet name="Hyundai I10" r:id="rId10" sheetId="8"/>
+    <sheet name="Hyundai Santro Xing" r:id="rId11" sheetId="9"/>
+    <sheet name="Honda City" r:id="rId12" sheetId="10"/>
+    <sheet name="Toyota Innova" r:id="rId13" sheetId="11"/>
+    <sheet name="Toyota Fortuner" r:id="rId14" sheetId="12"/>
+    <sheet name="Mahindra XUV500" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="341">
   <si>
     <t>Bike Name</t>
   </si>
@@ -210,6 +219,848 @@
   </si>
   <si>
     <t>Mahindra XUV500</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Kilometers</t>
+  </si>
+  <si>
+    <t>Model Year</t>
+  </si>
+  <si>
+    <t>Maruti 800 Maruti 800 AC</t>
+  </si>
+  <si>
+    <t>Rs. 30,000</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>60000 Kms</t>
+  </si>
+  <si>
+    <t>1999 Model</t>
+  </si>
+  <si>
+    <t>Rs. 1.00 Lakh</t>
+  </si>
+  <si>
+    <t>70000 Kms</t>
+  </si>
+  <si>
+    <t>2005 Model</t>
+  </si>
+  <si>
+    <t>Rs. 55,000</t>
+  </si>
+  <si>
+    <t>90000 Kms</t>
+  </si>
+  <si>
+    <t>2006 Model</t>
+  </si>
+  <si>
+    <t>Rs. 80,000</t>
+  </si>
+  <si>
+    <t>50000 Kms</t>
+  </si>
+  <si>
+    <t>40000 Kms</t>
+  </si>
+  <si>
+    <t>Maruti 800 Maruti 800 Std</t>
+  </si>
+  <si>
+    <t>Rs. 70,000</t>
+  </si>
+  <si>
+    <t>10000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 1.40 Lakh</t>
+  </si>
+  <si>
+    <t>2012 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire ZDi</t>
+  </si>
+  <si>
+    <t>Rs. 4.10 Lakh</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>90003 Kms</t>
+  </si>
+  <si>
+    <t>2011 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VXi</t>
+  </si>
+  <si>
+    <t>Rs. 3.60 Lakh</t>
+  </si>
+  <si>
+    <t>2010 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI</t>
+  </si>
+  <si>
+    <t>Rs. 4.59 Lakh</t>
+  </si>
+  <si>
+    <t>52731 Kms</t>
+  </si>
+  <si>
+    <t>2014 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.28 Lakh</t>
+  </si>
+  <si>
+    <t>16093 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.63 Lakh</t>
+  </si>
+  <si>
+    <t>87595 Kms</t>
+  </si>
+  <si>
+    <t>2017 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VDI</t>
+  </si>
+  <si>
+    <t>Rs. 5.25 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXI</t>
+  </si>
+  <si>
+    <t>2015 Model</t>
+  </si>
+  <si>
+    <t>Rs. 3.50 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.10 Lakh</t>
+  </si>
+  <si>
+    <t>20000 Kms</t>
+  </si>
+  <si>
+    <t>2022 Model</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire LDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.80 Lakh</t>
+  </si>
+  <si>
+    <t>110000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.50 Lakh</t>
+  </si>
+  <si>
+    <t>120000 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 7.50 Lakh</t>
+  </si>
+  <si>
+    <t>2018 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.88 Lakh</t>
+  </si>
+  <si>
+    <t>81355 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VDI</t>
+  </si>
+  <si>
+    <t>Rs. 6.25 Lakh</t>
+  </si>
+  <si>
+    <t>64500 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift VXI AMT</t>
+  </si>
+  <si>
+    <t>Rs. 6.11 Lakh</t>
+  </si>
+  <si>
+    <t>57765 Kms</t>
+  </si>
+  <si>
+    <t>2019 Model</t>
+  </si>
+  <si>
+    <t>Rs. 6.16 Lakh</t>
+  </si>
+  <si>
+    <t>44331 Kms</t>
+  </si>
+  <si>
+    <t>2020 Model</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.00 Lakh</t>
+  </si>
+  <si>
+    <t>15681 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift AMT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.40 Lakh</t>
+  </si>
+  <si>
+    <t>51200 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI Plus AMT</t>
+  </si>
+  <si>
+    <t>Rs. 7.21 Lakh</t>
+  </si>
+  <si>
+    <t>25580 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VVT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.95 Lakh</t>
+  </si>
+  <si>
+    <t>56852 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.18 Lakh</t>
+  </si>
+  <si>
+    <t>93003 Kms</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI 2018</t>
+  </si>
+  <si>
+    <t>Rs. 5.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.84 Lakh</t>
+  </si>
+  <si>
+    <t>59237 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna</t>
+  </si>
+  <si>
+    <t>Rs. 2.50 Lakh</t>
+  </si>
+  <si>
+    <t>78006 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna AT</t>
+  </si>
+  <si>
+    <t>34913 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz</t>
+  </si>
+  <si>
+    <t>Rs. 3.22 Lakh</t>
+  </si>
+  <si>
+    <t>49810 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.75 Lakh</t>
+  </si>
+  <si>
+    <t>52700 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.40 Lakh</t>
+  </si>
+  <si>
+    <t>2009 Model</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz AT</t>
+  </si>
+  <si>
+    <t>Rs. 3.75 Lakh</t>
+  </si>
+  <si>
+    <t>2013 Model</t>
+  </si>
+  <si>
+    <t>Rs. 3.49 Lakh</t>
+  </si>
+  <si>
+    <t>75456 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2 AT</t>
+  </si>
+  <si>
+    <t>83268 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 3.10 Lakh</t>
+  </si>
+  <si>
+    <t>54000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 2.15 Lakh</t>
+  </si>
+  <si>
+    <t>80000 Kms</t>
+  </si>
+  <si>
+    <t>2008 Model</t>
+  </si>
+  <si>
+    <t>Rs. 2.90 Lakh</t>
+  </si>
+  <si>
+    <t>71963 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.35 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL CNG</t>
+  </si>
+  <si>
+    <t>Rs. 2.38 Lakh</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS AT</t>
+  </si>
+  <si>
+    <t>Rs. 1.75 Lakh</t>
+  </si>
+  <si>
+    <t>45000 Kms</t>
+  </si>
+  <si>
+    <t>2007 Model</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL Plus</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XL</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>84169 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 1.85 Lakh</t>
+  </si>
+  <si>
+    <t>72110 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL</t>
+  </si>
+  <si>
+    <t>150000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 3.00 Lakh</t>
+  </si>
+  <si>
+    <t>100000 Kms</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS</t>
+  </si>
+  <si>
+    <t>Rs. 2.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 60,000</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS LPG</t>
+  </si>
+  <si>
+    <t>Rs. 75,000</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City SV MT</t>
+  </si>
+  <si>
+    <t>Rs. 7.80 Lakh</t>
+  </si>
+  <si>
+    <t>50003 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 14.50 Lakh</t>
+  </si>
+  <si>
+    <t>26000 Kms</t>
+  </si>
+  <si>
+    <t>2021 Model</t>
+  </si>
+  <si>
+    <t>Honda City 2020-2023 Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Rs. 13.25 Lakh</t>
+  </si>
+  <si>
+    <t>16500 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.60 Lakh</t>
+  </si>
+  <si>
+    <t>53253 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 S MT</t>
+  </si>
+  <si>
+    <t>Rs. 3.20 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>59800 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 6.50 Lakh</t>
+  </si>
+  <si>
+    <t>67429 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City V CVT</t>
+  </si>
+  <si>
+    <t>Rs. 9.45 Lakh</t>
+  </si>
+  <si>
+    <t>19000 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i DTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.10 Lakh</t>
+  </si>
+  <si>
+    <t>108600 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City S</t>
+  </si>
+  <si>
+    <t>Rs. 5.10 Lakh</t>
+  </si>
+  <si>
+    <t>83714 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 5.35 Lakh</t>
+  </si>
+  <si>
+    <t>58238 Kms</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 10.25 Lakh</t>
+  </si>
+  <si>
+    <t>34000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 8.25 Lakh</t>
+  </si>
+  <si>
+    <t>131002 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 EV (Diesel) PS 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 13.50 Lakh</t>
+  </si>
+  <si>
+    <t>270003 Kms</t>
+  </si>
+  <si>
+    <t>2016 Model</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.0 G1 BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 4.90 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 11.00 Lakh</t>
+  </si>
+  <si>
+    <t>200000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G4 Diesel 8-seater</t>
+  </si>
+  <si>
+    <t>Rs. 4.65 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 12.69 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2009-2012 Toyota Innova 2.5 VX 7 STR</t>
+  </si>
+  <si>
+    <t>Rs. 11.15 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 V Diesel 7-seater</t>
+  </si>
+  <si>
+    <t>Rs. 5.40 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 E</t>
+  </si>
+  <si>
+    <t>Rs. 6.99 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 8 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x2 4 Speed AT</t>
+  </si>
+  <si>
+    <t>Rs. 14.75 Lakh</t>
+  </si>
+  <si>
+    <t>125000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x4 MT</t>
+  </si>
+  <si>
+    <t>Rs. 15.75 Lakh</t>
+  </si>
+  <si>
+    <t>139000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner TRD 4X4 AT</t>
+  </si>
+  <si>
+    <t>Rs. 31.90 Lakh</t>
+  </si>
+  <si>
+    <t>99000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner 2.8 4WD AT</t>
+  </si>
+  <si>
+    <t>Rs. 31.00 Lakh</t>
+  </si>
+  <si>
+    <t>58000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X4 Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 38.00 Lakh</t>
+  </si>
+  <si>
+    <t>25000 Kms</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X2 Diesel BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 37.00 Lakh</t>
+  </si>
+  <si>
+    <t>2023 Model</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X2 Diesel AT</t>
+  </si>
+  <si>
+    <t>Rs. 41.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner 2.8 2WD MT</t>
+  </si>
+  <si>
+    <t>Rs. 25.50 Lakh</t>
+  </si>
+  <si>
+    <t>130000 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 2WD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W6 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 5.65 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W4</t>
+  </si>
+  <si>
+    <t>Rs. 8.75 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 AT W9 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 13.85 Lakh</t>
+  </si>
+  <si>
+    <t>65000 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W4</t>
+  </si>
+  <si>
+    <t>Rs. 6.30 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 AT W6 2WD</t>
+  </si>
+  <si>
+    <t>22000 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 6.80 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W9 1.99</t>
+  </si>
+  <si>
+    <t>Rs. 17.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.95 Lakh</t>
+  </si>
+  <si>
+    <t>105402 Kms</t>
+  </si>
+  <si>
+    <t>Rs. 8.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W9</t>
+  </si>
+  <si>
+    <t>Rs. 16.35 Lakh</t>
+  </si>
+  <si>
+    <t>45912 Kms</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W4 1.99 mHawk</t>
+  </si>
+  <si>
+    <t>Rs. 5.75 Lakh</t>
+  </si>
+  <si>
+    <t>Health Insurance Brand Name</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Star Health</t>
+  </si>
+  <si>
+    <t>Aditya Birla</t>
+  </si>
+  <si>
+    <t>Niva Bupa</t>
+  </si>
+  <si>
+    <t>Manipal Cigna</t>
+  </si>
+  <si>
+    <t>Care Health</t>
+  </si>
+  <si>
+    <t>Cholamandalam MS</t>
+  </si>
+  <si>
+    <t>New India Assurance</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Zuno</t>
+  </si>
+  <si>
+    <t>Universal Sompo</t>
+  </si>
+  <si>
+    <t>Future Generali</t>
+  </si>
+  <si>
+    <t>National Insurance</t>
+  </si>
+  <si>
+    <t>United India</t>
+  </si>
+  <si>
+    <t>Health Insurance Plan</t>
+  </si>
+  <si>
+    <t>₹398
+ /month</t>
+  </si>
+  <si>
+    <t>₹426
+ /month</t>
+  </si>
+  <si>
+    <t>₹481
+ /month</t>
+  </si>
+  <si>
+    <t>₹628
+ /month</t>
+  </si>
+  <si>
+    <t>₹722
+ /month</t>
+  </si>
+  <si>
+    <t>₹615
+ /month</t>
+  </si>
+  <si>
+    <t>₹528
+ /month</t>
+  </si>
+  <si>
+    <t>₹644
+ /month</t>
+  </si>
+  <si>
+    <t>₹479
+ /month</t>
+  </si>
+  <si>
+    <t>₹574
+ /month</t>
+  </si>
+  <si>
+    <t>₹568
+ /month</t>
+  </si>
+  <si>
+    <t>₹707
+ /month</t>
+  </si>
+  <si>
+    <t>₹586
+ /month</t>
+  </si>
+  <si>
+    <t>₹498
+ /month</t>
   </si>
 </sst>
 </file>
@@ -217,13 +1068,248 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="55">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -301,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -347,6 +1433,180 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -470,6 +1730,902 @@
       </c>
       <c r="C9" t="s" s="27">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="43.19140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="134">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="135">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="136">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="137">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="138">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="139">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s" s="139">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s" s="139">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="139">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s" s="139">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="140">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s" s="140">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s" s="140">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="140">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s" s="140">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="141">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s" s="141">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s" s="141">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="141">
+        <v>216</v>
+      </c>
+      <c r="E4" t="s" s="141">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="142">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s" s="142">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s" s="142">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="142">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s" s="142">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="143">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s" s="143">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s" s="143">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="143">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s" s="143">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="144">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s" s="144">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s" s="144">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="144">
+        <v>223</v>
+      </c>
+      <c r="E7" t="s" s="144">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="145">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s" s="145">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s" s="145">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="145">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s" s="145">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="146">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s" s="146">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s" s="146">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="146">
+        <v>229</v>
+      </c>
+      <c r="E9" t="s" s="146">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="147">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s" s="147">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s" s="147">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s" s="147">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s" s="147">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="148">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s" s="148">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s" s="148">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="148">
+        <v>235</v>
+      </c>
+      <c r="E11" t="s" s="148">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="149">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s" s="149">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s" s="149">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="149">
+        <v>237</v>
+      </c>
+      <c r="E12" t="s" s="149">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="150">
+        <v>238</v>
+      </c>
+      <c r="B13" t="s" s="150">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s" s="150">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="150">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s" s="150">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="51.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="151">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="152">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="153">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="154">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="155">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="156">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s" s="156">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s" s="156">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s" s="156">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s" s="156">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="157">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s" s="157">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s" s="157">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s" s="157">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s" s="157">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="158">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s" s="158">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s" s="158">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="158">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s" s="158">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="159">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s" s="159">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s" s="159">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s" s="159">
+        <v>252</v>
+      </c>
+      <c r="E5" t="s" s="159">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="160">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s" s="160">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s" s="160">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s" s="160">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s" s="160">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="161">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s" s="161">
+        <v>256</v>
+      </c>
+      <c r="C7" t="s" s="161">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s" s="161">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s" s="161">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="162">
+        <v>257</v>
+      </c>
+      <c r="B8" t="s" s="162">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s" s="162">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s" s="162">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s" s="162">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="163">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s" s="163">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s" s="163">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s" s="163">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s" s="163">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="164">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s" s="164">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s" s="164">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s" s="164">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s" s="164">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="165">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s" s="165">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s" s="165">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s" s="165">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s" s="165">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="166">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s" s="166">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s" s="166">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s" s="166">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s" s="166">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="167">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s" s="167">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="167">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s" s="167">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s" s="167">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="49.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="168">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="169">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="170">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="171">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="172">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="173">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s" s="173">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s" s="173">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s" s="173">
+        <v>267</v>
+      </c>
+      <c r="E2" t="s" s="173">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="174">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s" s="174">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s" s="174">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s" s="174">
+        <v>270</v>
+      </c>
+      <c r="E3" t="s" s="174">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="175">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s" s="175">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s" s="175">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s" s="175">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s" s="175">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="176">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s" s="176">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s" s="176">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s" s="176">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s" s="176">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="177">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s" s="177">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s" s="177">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s" s="177">
+        <v>279</v>
+      </c>
+      <c r="E6" t="s" s="177">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="178">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s" s="178">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s" s="178">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s" s="178">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s" s="178">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="179">
+        <v>283</v>
+      </c>
+      <c r="B8" t="s" s="179">
+        <v>284</v>
+      </c>
+      <c r="C8" t="s" s="179">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s" s="179">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s" s="179">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="180">
+        <v>285</v>
+      </c>
+      <c r="B9" t="s" s="180">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s" s="180">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s" s="180">
+        <v>287</v>
+      </c>
+      <c r="E9" t="s" s="180">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="47.41015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="181">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="182">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="183">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="184">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="185">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="186">
+        <v>288</v>
+      </c>
+      <c r="B2" t="s" s="186">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s" s="186">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s" s="186">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s" s="186">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="187">
+        <v>289</v>
+      </c>
+      <c r="B3" t="s" s="187">
+        <v>290</v>
+      </c>
+      <c r="C3" t="s" s="187">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s" s="187">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s" s="187">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="188">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s" s="188">
+        <v>292</v>
+      </c>
+      <c r="C4" t="s" s="188">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s" s="188">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s" s="188">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="189">
+        <v>293</v>
+      </c>
+      <c r="B5" t="s" s="189">
+        <v>294</v>
+      </c>
+      <c r="C5" t="s" s="189">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s" s="189">
+        <v>295</v>
+      </c>
+      <c r="E5" t="s" s="189">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="190">
+        <v>296</v>
+      </c>
+      <c r="B6" t="s" s="190">
+        <v>297</v>
+      </c>
+      <c r="C6" t="s" s="190">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s" s="190">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s" s="190">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="191">
+        <v>298</v>
+      </c>
+      <c r="B7" t="s" s="191">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="191">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s" s="191">
+        <v>299</v>
+      </c>
+      <c r="E7" t="s" s="191">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="192">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s" s="192">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s" s="192">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s" s="192">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s" s="192">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="193">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s" s="193">
+        <v>302</v>
+      </c>
+      <c r="C9" t="s" s="193">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s" s="193">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s" s="193">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="194">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s" s="194">
+        <v>303</v>
+      </c>
+      <c r="C10" t="s" s="194">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s" s="194">
+        <v>304</v>
+      </c>
+      <c r="E10" t="s" s="194">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="195">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s" s="195">
+        <v>305</v>
+      </c>
+      <c r="C11" t="s" s="195">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s" s="195">
+        <v>177</v>
+      </c>
+      <c r="E11" t="s" s="195">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="196">
+        <v>306</v>
+      </c>
+      <c r="B12" t="s" s="196">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s" s="196">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s" s="196">
+        <v>308</v>
+      </c>
+      <c r="E12" t="s" s="196">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="197">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s" s="197">
+        <v>310</v>
+      </c>
+      <c r="C13" t="s" s="197">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s" s="197">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s" s="197">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -651,13 +2807,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="24.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.41015625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s" s="198">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s" s="213">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="214">
+        <v>312</v>
+      </c>
+      <c r="B2" t="s" s="214">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="215">
+        <v>313</v>
+      </c>
+      <c r="B3" t="s" s="215">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="216">
+        <v>314</v>
+      </c>
+      <c r="B4" t="s" s="216">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="217">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s" s="217">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="218">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s" s="218">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="219">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s" s="219">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="220">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s" s="220">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="221">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s" s="221">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="222">
+        <v>320</v>
+      </c>
+      <c r="B10" t="s" s="222">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="223">
+        <v>321</v>
+      </c>
+      <c r="B11" t="s" s="223">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="224">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s" s="224">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="225">
+        <v>323</v>
+      </c>
+      <c r="B13" t="s" s="225">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="226">
+        <v>324</v>
+      </c>
+      <c r="B14" t="s" s="226">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="227">
+        <v>325</v>
+      </c>
+      <c r="B15" t="s" s="227">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -727,4 +3006,1124 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="22.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="54">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="55">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="56">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="57">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="58">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="59">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s" s="59">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s" s="59">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="59">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s" s="59">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="60">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s" s="60">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s" s="60">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="60">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s" s="60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="61">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s" s="61">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s" s="61">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="61">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s" s="61">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="62">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s" s="62">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s" s="62">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="62">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s" s="62">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="63">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s" s="63">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s" s="63">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="63">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s" s="63">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="64">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s" s="64">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s" s="64">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="64">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s" s="64">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="65">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s" s="65">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s" s="65">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="65">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s" s="65">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="42.72265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="66">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="67">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="68">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="69">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="70">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="71">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s" s="71">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s" s="71">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s" s="71">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s" s="71">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="72">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s" s="72">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s" s="72">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="72">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s" s="72">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="73">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="73">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="73">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="73">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s" s="73">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="74">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="74">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s" s="74">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="74">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s" s="74">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="75">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s" s="75">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="75">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="75">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s" s="75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="76">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="76">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s" s="76">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s" s="76">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s" s="76">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="77">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="77">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s" s="77">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="77">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s" s="77">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="78">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="78">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s" s="78">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="78">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s" s="78">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="79">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s" s="79">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s" s="79">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="79">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s" s="79">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="80">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s" s="80">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s" s="80">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s" s="80">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s" s="80">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="81">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s" s="81">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s" s="81">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s" s="81">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s" s="81">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="82">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s" s="82">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s" s="82">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s" s="82">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s" s="82">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="83">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="84">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="85">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="86">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="88">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s" s="88">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s" s="88">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="88">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s" s="88">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="89">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s" s="89">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s" s="89">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s" s="89">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s" s="89">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="90">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s" s="90">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s" s="90">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="90">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s" s="90">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="91">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s" s="91">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s" s="91">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="91">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s" s="91">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="92">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s" s="92">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s" s="92">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="92">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s" s="92">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="93">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s" s="93">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s" s="93">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="93">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s" s="93">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="94">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s" s="94">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s" s="94">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="94">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s" s="94">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="95">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s" s="95">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s" s="95">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="95">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s" s="95">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="96">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s" s="96">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s" s="96">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="96">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s" s="96">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="97">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s" s="97">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s" s="97">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="97">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s" s="97">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="98">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s" s="98">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s" s="98">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="98">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s" s="98">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="99">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s" s="99">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s" s="99">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="99">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s" s="99">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="40.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="100">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="101">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="102">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="103">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="104">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="105">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s" s="105">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s" s="105">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s" s="105">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s" s="105">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="106">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s" s="106">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="106">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="106">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s" s="106">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="107">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s" s="107">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s" s="107">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="107">
+        <v>162</v>
+      </c>
+      <c r="E4" t="s" s="107">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="108">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s" s="108">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s" s="108">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="108">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s" s="108">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="109">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s" s="109">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s" s="109">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="109">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s" s="109">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="110">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s" s="110">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s" s="110">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="110">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s" s="110">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="111">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s" s="111">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s" s="111">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="111">
+        <v>171</v>
+      </c>
+      <c r="E8" t="s" s="111">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="112">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s" s="112">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s" s="112">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="112">
+        <v>173</v>
+      </c>
+      <c r="E9" t="s" s="112">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="113">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s" s="113">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s" s="113">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="113">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s" s="113">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="114">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s" s="114">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s" s="114">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="114">
+        <v>177</v>
+      </c>
+      <c r="E11" t="s" s="114">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="115">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s" s="115">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s" s="115">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s" s="115">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="116">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s" s="116">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s" s="116">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="116">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s" s="116">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="46.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.37109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="117">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="118">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="119">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s" s="120">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s" s="121">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="122">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s" s="122">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s" s="122">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s" s="122">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s" s="122">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="123">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s" s="123">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s" s="123">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s" s="123">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s" s="123">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="124">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s" s="124">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s" s="124">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="124">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s" s="124">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="125">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s" s="125">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="125">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="125">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s" s="125">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="126">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s" s="126">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s" s="126">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="126">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s" s="126">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="127">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s" s="127">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s" s="127">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s" s="127">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s" s="127">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="128">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s" s="128">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s" s="128">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s" s="128">
+        <v>198</v>
+      </c>
+      <c r="E8" t="s" s="128">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="129">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s" s="129">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="129">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="129">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s" s="129">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="130">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s" s="130">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s" s="130">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="130">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s" s="130">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="131">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s" s="131">
+        <v>202</v>
+      </c>
+      <c r="C11" t="s" s="131">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="131">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s" s="131">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="132">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s" s="132">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s" s="132">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="132">
+        <v>177</v>
+      </c>
+      <c r="E12" t="s" s="132">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="133">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s" s="133">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s" s="133">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s" s="133">
+        <v>198</v>
+      </c>
+      <c r="E13" t="s" s="133">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>